--- a/src/test/resources/TestData/AVSCal_TestData.xlsx
+++ b/src/test/resources/TestData/AVSCal_TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay.Jyothula\git\AVSQualFLow\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB287703-BF64-4D66-A9B6-580B4AF6AC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0759DD9A-2D60-4ABA-98D2-4AC0597467B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVS_Cal" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>AssetName</t>
   </si>
@@ -48,10 +49,13 @@
     <t>10.17.18.94</t>
   </si>
   <si>
-    <t>Ethernet IP-- 10.17.18.94</t>
-  </si>
-  <si>
     <t>AVS_Caliberation</t>
+  </si>
+  <si>
+    <t>192.168.1.2</t>
+  </si>
+  <si>
+    <t>IP 192.168.1.2</t>
   </si>
 </sst>
 </file>
@@ -399,7 +403,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,16 +437,37 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074AFF5F-76E6-4981-97A0-D1B7A899F69F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
